--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC001</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC002</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC003</t>
+  </si>
+  <si>
+    <t>Stan Koster Andersons</t>
   </si>
 </sst>
 </file>
@@ -406,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -468,6 +483,62 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -68,6 +68,39 @@
   </si>
   <si>
     <t>Stan Koster Andersons</t>
+  </si>
+  <si>
+    <t>EditDeal_TC001</t>
+  </si>
+  <si>
+    <t>EditDeal_TC002</t>
+  </si>
+  <si>
+    <t>EditDeal_TC003</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>RESHARE</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>Karthikeyan</t>
   </si>
 </sst>
 </file>
@@ -421,15 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -539,6 +570,132 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Karthikeyan</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC001</t>
   </si>
 </sst>
 </file>
@@ -454,9 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -696,6 +710,62 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>CounterDeal_TC001</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003</t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +775,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>Deals_Chat_CarrierUser_TC003</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC002</t>
+  </si>
+  <si>
+    <t>Asher Johnson</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC003</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003</t>
   </si>
 </sst>
 </file>
@@ -475,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +787,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -777,7 +801,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -791,10 +815,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -805,15 +829,113 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
       </c>
     </row>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -146,6 +146,27 @@
   </si>
   <si>
     <t>DateFilter_TC003</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC002</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC003</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004</t>
   </si>
 </sst>
 </file>
@@ -499,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +960,104 @@
         <v>9</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="60">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>NegotiateDeal_TC004</t>
+  </si>
+  <si>
+    <t>ShipperUser_ShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>ShipperUser_ReShareDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_WithDrawDeal_TC005</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC006</t>
+  </si>
+  <si>
+    <t>ShipperUser_CounterDeal_TC008</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_ShareAll_TC013</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016</t>
+  </si>
+  <si>
+    <t>Carrier_ShareAll_TC021</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024</t>
   </si>
 </sst>
 </file>
@@ -520,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1058,6 +1085,132 @@
         <v>9</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/ShareDeal.xlsx
+++ b/TestData/ShareDeal.xlsx
@@ -37,9 +37,6 @@
     <t>ONE</t>
   </si>
   <si>
-    <t>John Tucker</t>
-  </si>
-  <si>
     <t>Contact Name</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Carrier_CounterDeal_TC024</t>
+  </si>
+  <si>
+    <t>John Trucker</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -586,629 +586,629 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
